--- a/doc/ue_pso_usagemask.xlsx
+++ b/doc/ue_pso_usagemask.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0CCDC3-010C-48C6-A0B6-5912D28BABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5088B1-905A-4406-8C17-53077E179FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>通过设置PSO usageMask可以实现按照不同优化，不同阶段，不同地图等提前编译某些shader</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +61,43 @@
   </si>
   <si>
     <t>原始包可以只包含登陆前，登录后大厅的通用PSO，预编译其shaders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static TAutoConsoleVariable&lt;int32&gt; CVarPSOFileCachePreCompileMask(</t>
+  </si>
+  <si>
+    <t>TEXT("r.ShaderPipelineCache.PreCompileMask"),</t>
+  </si>
+  <si>
+    <t>-1,</t>
+  </si>
+  <si>
+    <t>TEXT("Mask used to precompile the cache. Defaults to all PSOs (-1)"),</t>
+  </si>
+  <si>
+    <t>ECVF_Default | ECVF_RenderThreadSafe</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>设置全局的MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FShaderPipelineCache::OpenPipelineFileCache(PSOFilePath);</t>
+  </si>
+  <si>
+    <t>手动发起加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同地图分为不同的metallib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部用一个metallib，然后压缩的方式降低包体大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,20 +433,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D25"/>
+  <dimension ref="B3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1</v>
       </c>
@@ -416,7 +454,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2</v>
       </c>
@@ -424,7 +478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>3</v>
       </c>
@@ -432,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>1</v>
       </c>
@@ -440,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>2</v>
       </c>
@@ -475,6 +529,67 @@
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085BDD3A-C019-4171-8D34-C43577F4B54B}">
+  <dimension ref="B7:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
